--- a/ENMTML/Outfiles/run_PCA_4algs_kfold_prev1_03-29-2022/Validation/Pt_validation_allData.xlsx
+++ b/ENMTML/Outfiles/run_PCA_4algs_kfold_prev1_03-29-2022/Validation/Pt_validation_allData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t xml:space="preserve">Presence</t>
   </si>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">Licking County</t>
   </si>
   <si>
-    <t xml:space="preserve">Canby</t>
+    <t xml:space="preserve">Clackamas County 1</t>
   </si>
   <si>
     <t xml:space="preserve">Oregon</t>
@@ -368,22 +368,25 @@
     <t xml:space="preserve">Charleston</t>
   </si>
   <si>
-    <t xml:space="preserve">Eagle Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest Grove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
+    <t xml:space="preserve">Clackamas County 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clackamas County 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linn County</t>
   </si>
   <si>
     <t xml:space="preserve">Portland</t>
   </si>
   <si>
-    <t xml:space="preserve">St. Paul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woodburn</t>
+    <t xml:space="preserve">Marion County 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marion County 2</t>
   </si>
   <si>
     <t xml:space="preserve">Blair County</t>
@@ -2475,7 +2478,7 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
@@ -2492,7 +2495,7 @@
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
@@ -2509,7 +2512,7 @@
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D93" t="s">
         <v>23</v>
@@ -2526,7 +2529,7 @@
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -2543,7 +2546,7 @@
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -2560,7 +2563,7 @@
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D96" t="s">
         <v>23</v>
@@ -2577,7 +2580,7 @@
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D97" t="s">
         <v>23</v>
@@ -2594,13 +2597,13 @@
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
       </c>
       <c r="E98" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99">
@@ -2611,13 +2614,13 @@
         <v>15</v>
       </c>
       <c r="C99" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" t="s">
         <v>126</v>
-      </c>
-      <c r="D99" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="100">
@@ -2628,13 +2631,13 @@
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D100" t="s">
         <v>23</v>
       </c>
       <c r="E100" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101">
@@ -2645,13 +2648,13 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
       </c>
       <c r="E101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102">
@@ -2662,13 +2665,13 @@
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D102" t="s">
         <v>23</v>
       </c>
       <c r="E102" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103">
@@ -2685,7 +2688,7 @@
         <v>23</v>
       </c>
       <c r="E103" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104">
@@ -2696,13 +2699,13 @@
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D104" t="s">
         <v>23</v>
       </c>
       <c r="E104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105">
@@ -2713,13 +2716,13 @@
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D105" t="s">
         <v>23</v>
       </c>
       <c r="E105" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106">
@@ -2730,13 +2733,13 @@
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D106" t="s">
         <v>23</v>
       </c>
       <c r="E106" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107">
@@ -2747,13 +2750,13 @@
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
       </c>
       <c r="E107" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108">
@@ -2764,13 +2767,13 @@
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D108" t="s">
         <v>23</v>
       </c>
       <c r="E108" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109">
@@ -2781,13 +2784,13 @@
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D109" t="s">
         <v>23</v>
       </c>
       <c r="E109" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110">
@@ -2798,13 +2801,13 @@
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
       </c>
       <c r="E110" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111">
@@ -2821,7 +2824,7 @@
         <v>23</v>
       </c>
       <c r="E111" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112">
@@ -2832,13 +2835,13 @@
         <v>15</v>
       </c>
       <c r="C112" t="s">
+        <v>140</v>
+      </c>
+      <c r="D112" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" t="s">
         <v>139</v>
-      </c>
-      <c r="D112" t="s">
-        <v>23</v>
-      </c>
-      <c r="E112" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="113">
@@ -2849,13 +2852,13 @@
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
       </c>
       <c r="E113" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114">
@@ -2866,13 +2869,13 @@
         <v>15</v>
       </c>
       <c r="C114" t="s">
+        <v>143</v>
+      </c>
+      <c r="D114" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" t="s">
         <v>142</v>
-      </c>
-      <c r="D114" t="s">
-        <v>23</v>
-      </c>
-      <c r="E114" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="115">
@@ -2883,13 +2886,13 @@
         <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D115" t="s">
         <v>23</v>
       </c>
       <c r="E115" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116">
@@ -2900,13 +2903,13 @@
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
       </c>
       <c r="E116" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117">
@@ -2917,13 +2920,13 @@
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D117" t="s">
         <v>23</v>
       </c>
       <c r="E117" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118">
@@ -2934,13 +2937,13 @@
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D118" t="s">
         <v>23</v>
       </c>
       <c r="E118" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119">
@@ -2951,13 +2954,13 @@
         <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
       </c>
       <c r="E119" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120">
@@ -2974,7 +2977,7 @@
         <v>23</v>
       </c>
       <c r="E120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121">
@@ -2985,13 +2988,13 @@
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D121" t="s">
         <v>23</v>
       </c>
       <c r="E121" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122">
@@ -3002,13 +3005,13 @@
         <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
       </c>
       <c r="E122" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123">
@@ -3019,13 +3022,13 @@
         <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D123" t="s">
         <v>23</v>
       </c>
       <c r="E123" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124">
@@ -3036,13 +3039,13 @@
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D124" t="s">
         <v>23</v>
       </c>
       <c r="E124" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
@@ -3053,13 +3056,13 @@
         <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
       </c>
       <c r="E125" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
@@ -3070,13 +3073,13 @@
         <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D126" t="s">
         <v>23</v>
       </c>
       <c r="E126" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127">
@@ -3087,13 +3090,13 @@
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D127" t="s">
         <v>23</v>
       </c>
       <c r="E127" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128">
@@ -3104,13 +3107,13 @@
         <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D128" t="s">
         <v>23</v>
       </c>
       <c r="E128" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129">
@@ -3121,13 +3124,13 @@
         <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D129" t="s">
         <v>23</v>
       </c>
       <c r="E129" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130">
@@ -3138,13 +3141,13 @@
         <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D130" t="s">
         <v>23</v>
       </c>
       <c r="E130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131">
@@ -3155,13 +3158,13 @@
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
       </c>
       <c r="E131" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132">
@@ -3172,13 +3175,13 @@
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D132" t="s">
         <v>23</v>
       </c>
       <c r="E132" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133">
@@ -3189,13 +3192,13 @@
         <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D133" t="s">
         <v>23</v>
       </c>
       <c r="E133" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134">
@@ -3206,13 +3209,13 @@
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
       </c>
       <c r="E134" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135">
@@ -3223,13 +3226,13 @@
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D135" t="s">
         <v>23</v>
       </c>
       <c r="E135" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136">
@@ -3240,13 +3243,13 @@
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D136" t="s">
         <v>23</v>
       </c>
       <c r="E136" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137">
@@ -3257,13 +3260,13 @@
         <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D137" t="s">
         <v>23</v>
       </c>
       <c r="E137" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138">
@@ -3274,13 +3277,13 @@
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D138" t="s">
         <v>23</v>
       </c>
       <c r="E138" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139">
@@ -3291,13 +3294,13 @@
         <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D139" t="s">
         <v>23</v>
       </c>
       <c r="E139" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140">
@@ -3308,13 +3311,13 @@
         <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
       </c>
       <c r="E140" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141">
@@ -3325,13 +3328,13 @@
         <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D141" t="s">
         <v>23</v>
       </c>
       <c r="E141" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142">
@@ -3342,13 +3345,13 @@
         <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D142" t="s">
         <v>23</v>
       </c>
       <c r="E142" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143">
@@ -3359,13 +3362,13 @@
         <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D143" t="s">
         <v>23</v>
       </c>
       <c r="E143" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144">
@@ -3376,13 +3379,13 @@
         <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D144" t="s">
         <v>23</v>
       </c>
       <c r="E144" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145">
@@ -3393,13 +3396,13 @@
         <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D145" t="s">
         <v>23</v>
       </c>
       <c r="E145" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146">
@@ -3410,13 +3413,13 @@
         <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D146" t="s">
         <v>23</v>
       </c>
       <c r="E146" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147">
@@ -3427,13 +3430,13 @@
         <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D147" t="s">
         <v>23</v>
       </c>
       <c r="E147" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148">
@@ -3444,13 +3447,13 @@
         <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D148" t="s">
         <v>23</v>
       </c>
       <c r="E148" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149">
@@ -3461,13 +3464,13 @@
         <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D149" t="s">
         <v>23</v>
       </c>
       <c r="E149" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150">
@@ -3478,13 +3481,13 @@
         <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D150" t="s">
         <v>23</v>
       </c>
       <c r="E150" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151">
@@ -3495,13 +3498,13 @@
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D151" t="s">
         <v>23</v>
       </c>
       <c r="E151" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152">
@@ -3512,13 +3515,13 @@
         <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D152" t="s">
         <v>23</v>
       </c>
       <c r="E152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153">
@@ -3529,13 +3532,13 @@
         <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D153" t="s">
         <v>23</v>
       </c>
       <c r="E153" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154">
@@ -3546,13 +3549,13 @@
         <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D154" t="s">
         <v>23</v>
       </c>
       <c r="E154" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155">
@@ -3563,13 +3566,13 @@
         <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D155" t="s">
         <v>23</v>
       </c>
       <c r="E155" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156">
@@ -3580,13 +3583,13 @@
         <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D156" t="s">
         <v>23</v>
       </c>
       <c r="E156" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157">
@@ -3597,13 +3600,13 @@
         <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D157" t="s">
         <v>23</v>
       </c>
       <c r="E157" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158">
@@ -3614,13 +3617,13 @@
         <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D158" t="s">
         <v>23</v>
       </c>
       <c r="E158" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159">
@@ -3631,13 +3634,13 @@
         <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D159" t="s">
         <v>23</v>
       </c>
       <c r="E159" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160">
@@ -3648,13 +3651,13 @@
         <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D160" t="s">
         <v>23</v>
       </c>
       <c r="E160" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161">
@@ -3665,13 +3668,13 @@
         <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D161" t="s">
         <v>23</v>
       </c>
       <c r="E161" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="162">
@@ -3682,13 +3685,13 @@
         <v>15</v>
       </c>
       <c r="C162" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D162" t="s">
         <v>23</v>
       </c>
       <c r="E162" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="163">
@@ -3699,13 +3702,13 @@
         <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D163" t="s">
         <v>23</v>
       </c>
       <c r="E163" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164">
@@ -3722,7 +3725,7 @@
         <v>23</v>
       </c>
       <c r="E164" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165">
@@ -3733,13 +3736,13 @@
         <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D165" t="s">
         <v>23</v>
       </c>
       <c r="E165" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="166">
@@ -3750,13 +3753,13 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
+        <v>196</v>
+      </c>
+      <c r="D166" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" t="s">
         <v>195</v>
-      </c>
-      <c r="D166" t="s">
-        <v>23</v>
-      </c>
-      <c r="E166" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="167">
@@ -3767,13 +3770,13 @@
         <v>15</v>
       </c>
       <c r="C167" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D167" t="s">
         <v>23</v>
       </c>
       <c r="E167" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="168">
@@ -3784,13 +3787,13 @@
         <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D168" t="s">
         <v>23</v>
       </c>
       <c r="E168" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
